--- a/comparisons.xlsx
+++ b/comparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Desktop\SHL\weibull-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71813065-4599-4A93-9D76-142DF73C538B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F17A398-9458-4810-9E9F-871FB9E0D4C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3D736B34-3A5D-4925-93AE-188E9B26CC04}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{3D736B34-3A5D-4925-93AE-188E9B26CC04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
   <si>
     <t>exa1</t>
   </si>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D507185-7366-42D6-9A8A-14B2F261DAC3}">
   <dimension ref="A2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -760,7 +760,7 @@
         <v>0.53654999999999831</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I10" si="0">G4/E4</f>
+        <f t="shared" ref="I4:I14" si="0">G4/E4</f>
         <v>2.4552075063319155E-2</v>
       </c>
       <c r="K4" s="3">
@@ -819,7 +819,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -831,7 +831,7 @@
         <v>21</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G10" si="2">ABS(D9-E9)</f>
+        <f t="shared" ref="G9:G14" si="2">ABS(D9-E9)</f>
         <v>0.56599999999999895</v>
       </c>
       <c r="I9">
@@ -864,6 +864,55 @@
       <c r="K10">
         <f>I10*100</f>
         <v>7.3047619047619001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>20.434000000000001</v>
+      </c>
+      <c r="E13">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0.56599999999999895</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>2.6952380952380901E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K11:K14" si="3">I13*100</f>
+        <v>2.6952380952380901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>20.478999999999999</v>
+      </c>
+      <c r="E14">
+        <v>21</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0.5210000000000008</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>2.4809523809523847E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>2.4809523809523846</v>
       </c>
     </row>
     <row r="19" spans="2:2">
